--- a/subs_updated_7_22_21.xlsx
+++ b/subs_updated_7_22_21.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfildi899/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jmalik975/Documents/Capacity/test/test-repo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CBFDC211-0E22-B646-94DB-119C17DD531B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5908792D-A872-3A41-80EF-9896D28A2349}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4160" yWindow="1280" windowWidth="26840" windowHeight="15940" xr2:uid="{820CAD4E-91DC-7C40-B9A5-E495221B1E2C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -214,10 +214,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -534,47 +534,49 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{081B86FA-931D-F64E-96D2-61C92B3E49C3}">
   <dimension ref="A1:AA27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4" t="s">
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4" t="s">
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4" t="s">
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
-      <c r="R1" s="4" t="s">
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="S1" s="4"/>
-      <c r="T1" s="4"/>
-      <c r="U1" s="4"/>
-      <c r="V1" s="4" t="s">
+      <c r="S1" s="5"/>
+      <c r="T1" s="5"/>
+      <c r="U1" s="5"/>
+      <c r="V1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="W1" s="4"/>
-      <c r="X1" s="4"/>
-      <c r="Y1" s="4"/>
+      <c r="W1" s="5"/>
+      <c r="X1" s="5"/>
+      <c r="Y1" s="5"/>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
@@ -652,10 +654,10 @@
       <c r="Y2" t="s">
         <v>34</v>
       </c>
-      <c r="Z2" s="5" t="s">
+      <c r="Z2" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="AA2" s="5" t="s">
+      <c r="AA2" s="4" t="s">
         <v>36</v>
       </c>
     </row>
@@ -664,7 +666,7 @@
         <v>25</v>
       </c>
       <c r="B3" s="2">
-        <v>32093</v>
+        <v>32094</v>
       </c>
       <c r="C3" s="2">
         <v>68306</v>
@@ -674,7 +676,7 @@
       </c>
       <c r="E3" s="2">
         <f>SUM(B3:D3)</f>
-        <v>101998</v>
+        <v>101999</v>
       </c>
       <c r="F3">
         <v>35683</v>
@@ -2936,12 +2938,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="B1:E1"/>
     <mergeCell ref="F1:I1"/>
     <mergeCell ref="J1:M1"/>
     <mergeCell ref="N1:Q1"/>
     <mergeCell ref="R1:U1"/>
     <mergeCell ref="V1:Y1"/>
-    <mergeCell ref="B1:E1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/subs_updated_7_22_21.xlsx
+++ b/subs_updated_7_22_21.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jmalik975/Documents/Capacity/test/test-repo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5908792D-A872-3A41-80EF-9896D28A2349}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{928D3496-CD21-944F-8022-C28B521CB8E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4160" yWindow="1280" windowWidth="26840" windowHeight="15940" xr2:uid="{820CAD4E-91DC-7C40-B9A5-E495221B1E2C}"/>
   </bookViews>
@@ -535,7 +535,7 @@
   <dimension ref="A1:AA27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -666,7 +666,7 @@
         <v>25</v>
       </c>
       <c r="B3" s="2">
-        <v>32094</v>
+        <v>32095</v>
       </c>
       <c r="C3" s="2">
         <v>68306</v>
@@ -676,7 +676,7 @@
       </c>
       <c r="E3" s="2">
         <f>SUM(B3:D3)</f>
-        <v>101999</v>
+        <v>102000</v>
       </c>
       <c r="F3">
         <v>35683</v>
@@ -2938,12 +2938,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="V1:Y1"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="F1:I1"/>
     <mergeCell ref="J1:M1"/>
     <mergeCell ref="N1:Q1"/>
     <mergeCell ref="R1:U1"/>
-    <mergeCell ref="V1:Y1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
